--- a/Incremental_Tool/P10_P50_P90_Yearly_Profiles.xlsx
+++ b/Incremental_Tool/P10_P50_P90_Yearly_Profiles.xlsx
@@ -422,7 +422,7 @@
         <v>31048</v>
       </c>
       <c r="B5">
-        <v>0.6666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -430,7 +430,7 @@
         <v>31413</v>
       </c>
       <c r="B6">
-        <v>166762.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -438,7 +438,7 @@
         <v>31778</v>
       </c>
       <c r="B7">
-        <v>308779.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -446,7 +446,7 @@
         <v>32143</v>
       </c>
       <c r="B8">
-        <v>453079.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -454,7 +454,7 @@
         <v>32509</v>
       </c>
       <c r="B9">
-        <v>627209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -462,7 +462,7 @@
         <v>32874</v>
       </c>
       <c r="B10">
-        <v>1073686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -470,7 +470,7 @@
         <v>33239</v>
       </c>
       <c r="B11">
-        <v>1449423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -478,7 +478,7 @@
         <v>33604</v>
       </c>
       <c r="B12">
-        <v>1931244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -486,7 +486,7 @@
         <v>33970</v>
       </c>
       <c r="B13">
-        <v>2473188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -494,7 +494,7 @@
         <v>34335</v>
       </c>
       <c r="B14">
-        <v>2880291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -502,7 +502,7 @@
         <v>34700</v>
       </c>
       <c r="B15">
-        <v>3144799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -510,7 +510,7 @@
         <v>35065</v>
       </c>
       <c r="B16">
-        <v>3656319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -518,7 +518,7 @@
         <v>35431</v>
       </c>
       <c r="B17">
-        <v>4123199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -526,7 +526,7 @@
         <v>35796</v>
       </c>
       <c r="B18">
-        <v>5056257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -534,7 +534,7 @@
         <v>36161</v>
       </c>
       <c r="B19">
-        <v>6370167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -542,7 +542,7 @@
         <v>36526</v>
       </c>
       <c r="B20">
-        <v>7456750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -550,7 +550,7 @@
         <v>36892</v>
       </c>
       <c r="B21">
-        <v>8221430</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -558,7 +558,7 @@
         <v>37257</v>
       </c>
       <c r="B22">
-        <v>8829310</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -566,7 +566,7 @@
         <v>37622</v>
       </c>
       <c r="B23">
-        <v>9330230</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -574,7 +574,7 @@
         <v>37987</v>
       </c>
       <c r="B24">
-        <v>9643660</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -582,7 +582,7 @@
         <v>38353</v>
       </c>
       <c r="B25">
-        <v>9994360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -590,7 +590,7 @@
         <v>38718</v>
       </c>
       <c r="B26">
-        <v>10704170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -598,7 +598,7 @@
         <v>39083</v>
       </c>
       <c r="B27">
-        <v>11169250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -606,7 +606,7 @@
         <v>39448</v>
       </c>
       <c r="B28">
-        <v>11513250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -614,7 +614,7 @@
         <v>39814</v>
       </c>
       <c r="B29">
-        <v>11721550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -622,7 +622,7 @@
         <v>40179</v>
       </c>
       <c r="B30">
-        <v>11903670</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -630,7 +630,7 @@
         <v>40544</v>
       </c>
       <c r="B31">
-        <v>12048440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -638,7 +638,7 @@
         <v>40909</v>
       </c>
       <c r="B32">
-        <v>12142570</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -646,7 +646,7 @@
         <v>41275</v>
       </c>
       <c r="B33">
-        <v>12195110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -654,7 +654,7 @@
         <v>41640</v>
       </c>
       <c r="B34">
-        <v>12433690</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -662,7 +662,7 @@
         <v>42005</v>
       </c>
       <c r="B35">
-        <v>12888540</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -670,7 +670,7 @@
         <v>42370</v>
       </c>
       <c r="B36">
-        <v>13600910</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -678,7 +678,7 @@
         <v>42736</v>
       </c>
       <c r="B37">
-        <v>14238410</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -686,7 +686,7 @@
         <v>43101</v>
       </c>
       <c r="B38">
-        <v>14726940</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -694,7 +694,7 @@
         <v>43466</v>
       </c>
       <c r="B39">
-        <v>15258350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -702,7 +702,7 @@
         <v>43831</v>
       </c>
       <c r="B40">
-        <v>15728720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -710,7 +710,7 @@
         <v>44197</v>
       </c>
       <c r="B41">
-        <v>16113320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -718,7 +718,7 @@
         <v>44562</v>
       </c>
       <c r="B42">
-        <v>16464290</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -726,7 +726,7 @@
         <v>44927</v>
       </c>
       <c r="B43">
-        <v>16732800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -734,7 +734,7 @@
         <v>45292</v>
       </c>
       <c r="B44">
-        <v>16970180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -742,7 +742,7 @@
         <v>45658</v>
       </c>
       <c r="B45">
-        <v>17087490</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -750,7 +750,7 @@
         <v>46023</v>
       </c>
       <c r="B46">
-        <v>17279000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -758,7 +758,7 @@
         <v>46388</v>
       </c>
       <c r="B47">
-        <v>17437570</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -766,7 +766,7 @@
         <v>46753</v>
       </c>
       <c r="B48">
-        <v>17602950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -774,7 +774,7 @@
         <v>47119</v>
       </c>
       <c r="B49">
-        <v>17818170</v>
+        <v>314960</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -782,7 +782,7 @@
         <v>47484</v>
       </c>
       <c r="B50">
-        <v>18047990</v>
+        <v>507180</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -790,7 +790,7 @@
         <v>47849</v>
       </c>
       <c r="B51">
-        <v>18267900</v>
+        <v>660250</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -798,7 +798,7 @@
         <v>48214</v>
       </c>
       <c r="B52">
-        <v>18469450</v>
+        <v>789960</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -806,7 +806,7 @@
         <v>48580</v>
       </c>
       <c r="B53">
-        <v>18650600</v>
+        <v>902910</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -814,7 +814,7 @@
         <v>48945</v>
       </c>
       <c r="B54">
-        <v>18817770</v>
+        <v>1002400</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -822,7 +822,7 @@
         <v>49310</v>
       </c>
       <c r="B55">
-        <v>18966070</v>
+        <v>1090750</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -830,7 +830,7 @@
         <v>49675</v>
       </c>
       <c r="B56">
-        <v>19087760</v>
+        <v>1169980</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -838,7 +838,7 @@
         <v>50041</v>
       </c>
       <c r="B57">
-        <v>19202730</v>
+        <v>1241380</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -846,7 +846,7 @@
         <v>50406</v>
       </c>
       <c r="B58">
-        <v>19303790</v>
+        <v>1308500</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -854,7 +854,7 @@
         <v>50771</v>
       </c>
       <c r="B59">
-        <v>19367370</v>
+        <v>1382240</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -862,7 +862,7 @@
         <v>51136</v>
       </c>
       <c r="B60">
-        <v>19427520</v>
+        <v>1451460</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -870,7 +870,7 @@
         <v>51502</v>
       </c>
       <c r="B61">
-        <v>19484740</v>
+        <v>1516940</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -878,7 +878,7 @@
         <v>51867</v>
       </c>
       <c r="B62">
-        <v>19537960</v>
+        <v>1578920</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -886,7 +886,7 @@
         <v>52232</v>
       </c>
       <c r="B63">
-        <v>19572370</v>
+        <v>1638150</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -894,7 +894,7 @@
         <v>52597</v>
       </c>
       <c r="B64">
-        <v>19605340</v>
+        <v>1694620</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -902,7 +902,7 @@
         <v>52963</v>
       </c>
       <c r="B65">
-        <v>19637310</v>
+        <v>1748710</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -910,7 +910,7 @@
         <v>53328</v>
       </c>
       <c r="B66">
-        <v>19668480</v>
+        <v>1800280</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -918,7 +918,7 @@
         <v>53693</v>
       </c>
       <c r="B67">
-        <v>19699080</v>
+        <v>1849820</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -926,7 +926,7 @@
         <v>54058</v>
       </c>
       <c r="B68">
-        <v>19729140</v>
+        <v>1897350</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -934,7 +934,7 @@
         <v>54424</v>
       </c>
       <c r="B69">
-        <v>19758980</v>
+        <v>1943130</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -942,7 +942,7 @@
         <v>54789</v>
       </c>
       <c r="B70">
-        <v>19788290</v>
+        <v>1987140</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -950,7 +950,7 @@
         <v>55154</v>
       </c>
       <c r="B71">
-        <v>19817410</v>
+        <v>2029530</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -958,7 +958,7 @@
         <v>55519</v>
       </c>
       <c r="B72">
-        <v>19846350</v>
+        <v>2070400</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -966,7 +966,7 @@
         <v>55885</v>
       </c>
       <c r="B73">
-        <v>19875120</v>
+        <v>2109830</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -974,7 +974,7 @@
         <v>56250</v>
       </c>
       <c r="B74">
-        <v>19903720</v>
+        <v>2147960</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -982,7 +982,7 @@
         <v>56615</v>
       </c>
       <c r="B75">
-        <v>19932170</v>
+        <v>2184550</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -990,7 +990,7 @@
         <v>56980</v>
       </c>
       <c r="B76">
-        <v>19960480</v>
+        <v>2220030</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -998,7 +998,7 @@
         <v>57346</v>
       </c>
       <c r="B77">
-        <v>19988860</v>
+        <v>2254510</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>57711</v>
       </c>
       <c r="B78">
-        <v>20017000</v>
+        <v>2287570</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>58076</v>
       </c>
       <c r="B79">
-        <v>20045110</v>
+        <v>2319650</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>58441</v>
       </c>
       <c r="B80">
-        <v>20073100</v>
+        <v>2350740</v>
       </c>
     </row>
   </sheetData>
@@ -1072,7 +1072,7 @@
         <v>31048</v>
       </c>
       <c r="B5">
-        <v>0.1125336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1080,7 +1080,7 @@
         <v>31413</v>
       </c>
       <c r="B6">
-        <v>166082.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1088,7 +1088,7 @@
         <v>31778</v>
       </c>
       <c r="B7">
-        <v>307531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1096,7 +1096,7 @@
         <v>32143</v>
       </c>
       <c r="B8">
-        <v>451201.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1104,7 +1104,7 @@
         <v>32509</v>
       </c>
       <c r="B9">
-        <v>625084.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1112,7 +1112,7 @@
         <v>32874</v>
       </c>
       <c r="B10">
-        <v>1093405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1120,7 +1120,7 @@
         <v>33239</v>
       </c>
       <c r="B11">
-        <v>1483814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1128,7 +1128,7 @@
         <v>33604</v>
       </c>
       <c r="B12">
-        <v>1973105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1136,7 +1136,7 @@
         <v>33970</v>
       </c>
       <c r="B13">
-        <v>2522324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1144,7 +1144,7 @@
         <v>34335</v>
       </c>
       <c r="B14">
-        <v>2932568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1152,7 +1152,7 @@
         <v>34700</v>
       </c>
       <c r="B15">
-        <v>3200560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1160,7 +1160,7 @@
         <v>35065</v>
       </c>
       <c r="B16">
-        <v>3723645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1168,7 +1168,7 @@
         <v>35431</v>
       </c>
       <c r="B17">
-        <v>4209214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1176,7 +1176,7 @@
         <v>35796</v>
       </c>
       <c r="B18">
-        <v>5150350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1184,7 +1184,7 @@
         <v>36161</v>
       </c>
       <c r="B19">
-        <v>6476904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1192,7 +1192,7 @@
         <v>36526</v>
       </c>
       <c r="B20">
-        <v>7561980</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1200,7 +1200,7 @@
         <v>36892</v>
       </c>
       <c r="B21">
-        <v>8308510</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1208,7 +1208,7 @@
         <v>37257</v>
       </c>
       <c r="B22">
-        <v>8874620</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1216,7 +1216,7 @@
         <v>37622</v>
       </c>
       <c r="B23">
-        <v>9353900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1224,7 +1224,7 @@
         <v>37987</v>
       </c>
       <c r="B24">
-        <v>9645560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1232,7 +1232,7 @@
         <v>38353</v>
       </c>
       <c r="B25">
-        <v>9976290</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1240,7 +1240,7 @@
         <v>38718</v>
       </c>
       <c r="B26">
-        <v>10656760</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1248,7 +1248,7 @@
         <v>39083</v>
       </c>
       <c r="B27">
-        <v>11100240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1256,7 +1256,7 @@
         <v>39448</v>
       </c>
       <c r="B28">
-        <v>11438970</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1264,7 +1264,7 @@
         <v>39814</v>
       </c>
       <c r="B29">
-        <v>11642100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1272,7 +1272,7 @@
         <v>40179</v>
       </c>
       <c r="B30">
-        <v>11820020</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1280,7 +1280,7 @@
         <v>40544</v>
       </c>
       <c r="B31">
-        <v>11964720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1288,7 +1288,7 @@
         <v>40909</v>
       </c>
       <c r="B32">
-        <v>12060900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1296,7 +1296,7 @@
         <v>41275</v>
       </c>
       <c r="B33">
-        <v>12114290</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1304,7 +1304,7 @@
         <v>41640</v>
       </c>
       <c r="B34">
-        <v>12350690</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1312,7 +1312,7 @@
         <v>42005</v>
       </c>
       <c r="B35">
-        <v>12805880</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1320,7 +1320,7 @@
         <v>42370</v>
       </c>
       <c r="B36">
-        <v>13516990</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1328,7 +1328,7 @@
         <v>42736</v>
       </c>
       <c r="B37">
-        <v>14129010</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1336,7 +1336,7 @@
         <v>43101</v>
       </c>
       <c r="B38">
-        <v>14597400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1344,7 +1344,7 @@
         <v>43466</v>
       </c>
       <c r="B39">
-        <v>15107590</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1352,7 +1352,7 @@
         <v>43831</v>
       </c>
       <c r="B40">
-        <v>15545200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1360,7 +1360,7 @@
         <v>44197</v>
       </c>
       <c r="B41">
-        <v>15907880</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1368,7 +1368,7 @@
         <v>44562</v>
       </c>
       <c r="B42">
-        <v>16233220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1376,7 +1376,7 @@
         <v>44927</v>
       </c>
       <c r="B43">
-        <v>16479510</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1384,7 +1384,7 @@
         <v>45292</v>
       </c>
       <c r="B44">
-        <v>16696530</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1392,7 +1392,7 @@
         <v>45658</v>
       </c>
       <c r="B45">
-        <v>16809600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1400,7 +1400,7 @@
         <v>46023</v>
       </c>
       <c r="B46">
-        <v>16984580</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1408,7 +1408,7 @@
         <v>46388</v>
       </c>
       <c r="B47">
-        <v>17128620</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1416,7 +1416,7 @@
         <v>46753</v>
       </c>
       <c r="B48">
-        <v>17276870</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1424,7 +1424,7 @@
         <v>47119</v>
       </c>
       <c r="B49">
-        <v>17477970</v>
+        <v>275070</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1432,7 +1432,7 @@
         <v>47484</v>
       </c>
       <c r="B50">
-        <v>17695650</v>
+        <v>442660</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1440,7 +1440,7 @@
         <v>47849</v>
       </c>
       <c r="B51">
-        <v>17904170</v>
+        <v>578970</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1448,7 +1448,7 @@
         <v>48214</v>
       </c>
       <c r="B52">
-        <v>18095690</v>
+        <v>696020</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1456,7 +1456,7 @@
         <v>48580</v>
       </c>
       <c r="B53">
-        <v>18266920</v>
+        <v>799730</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1464,7 +1464,7 @@
         <v>48945</v>
       </c>
       <c r="B54">
-        <v>18424290</v>
+        <v>892590</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1472,7 +1472,7 @@
         <v>49310</v>
       </c>
       <c r="B55">
-        <v>18562930</v>
+        <v>976490</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1480,7 +1480,7 @@
         <v>49675</v>
       </c>
       <c r="B56">
-        <v>18674770</v>
+        <v>1052710</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1488,7 +1488,7 @@
         <v>50041</v>
       </c>
       <c r="B57">
-        <v>18780310</v>
+        <v>1122470</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1496,7 +1496,7 @@
         <v>50406</v>
       </c>
       <c r="B58">
-        <v>18872130</v>
+        <v>1188430</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1504,7 +1504,7 @@
         <v>50771</v>
       </c>
       <c r="B59">
-        <v>18927730</v>
+        <v>1258280</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1512,7 +1512,7 @@
         <v>51136</v>
       </c>
       <c r="B60">
-        <v>18979960</v>
+        <v>1324280</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1520,7 +1520,7 @@
         <v>51502</v>
       </c>
       <c r="B61">
-        <v>19029500</v>
+        <v>1386810</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1528,7 +1528,7 @@
         <v>51867</v>
       </c>
       <c r="B62">
-        <v>19075640</v>
+        <v>1446280</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1536,7 +1536,7 @@
         <v>52232</v>
       </c>
       <c r="B63">
-        <v>19108080</v>
+        <v>1503230</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1544,7 +1544,7 @@
         <v>52597</v>
       </c>
       <c r="B64">
-        <v>19139090</v>
+        <v>1557850</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1552,7 +1552,7 @@
         <v>52963</v>
       </c>
       <c r="B65">
-        <v>19169020</v>
+        <v>1610220</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1560,7 +1560,7 @@
         <v>53328</v>
       </c>
       <c r="B66">
-        <v>19197880</v>
+        <v>1660290</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1568,7 +1568,7 @@
         <v>53693</v>
       </c>
       <c r="B67">
-        <v>19226090</v>
+        <v>1708420</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1576,7 +1576,7 @@
         <v>54058</v>
       </c>
       <c r="B68">
-        <v>19253680</v>
+        <v>1754750</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1584,7 +1584,7 @@
         <v>54424</v>
       </c>
       <c r="B69">
-        <v>19280760</v>
+        <v>1799620</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1592,7 +1592,7 @@
         <v>54789</v>
       </c>
       <c r="B70">
-        <v>19307220</v>
+        <v>1842810</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1600,7 +1600,7 @@
         <v>55154</v>
       </c>
       <c r="B71">
-        <v>19333290</v>
+        <v>1884660</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1608,7 +1608,7 @@
         <v>55519</v>
       </c>
       <c r="B72">
-        <v>19358970</v>
+        <v>1925070</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1616,7 +1616,7 @@
         <v>55885</v>
       </c>
       <c r="B73">
-        <v>19384270</v>
+        <v>1964400</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1624,7 +1624,7 @@
         <v>56250</v>
       </c>
       <c r="B74">
-        <v>19409290</v>
+        <v>2002290</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1632,7 +1632,7 @@
         <v>56615</v>
       </c>
       <c r="B75">
-        <v>19433930</v>
+        <v>2039110</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1640,7 +1640,7 @@
         <v>56980</v>
       </c>
       <c r="B76">
-        <v>19458310</v>
+        <v>2074750</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1648,7 +1648,7 @@
         <v>57346</v>
       </c>
       <c r="B77">
-        <v>19482650</v>
+        <v>2109460</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1656,7 +1656,7 @@
         <v>57711</v>
       </c>
       <c r="B78">
-        <v>19506620</v>
+        <v>2143110</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1664,7 +1664,7 @@
         <v>58076</v>
       </c>
       <c r="B79">
-        <v>19530340</v>
+        <v>2175710</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1672,7 +1672,7 @@
         <v>58441</v>
       </c>
       <c r="B80">
-        <v>19554020</v>
+        <v>2207480</v>
       </c>
     </row>
   </sheetData>
@@ -1722,7 +1722,7 @@
         <v>31048</v>
       </c>
       <c r="B5">
-        <v>0.3220063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1730,7 +1730,7 @@
         <v>31413</v>
       </c>
       <c r="B6">
-        <v>166341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1738,7 +1738,7 @@
         <v>31778</v>
       </c>
       <c r="B7">
-        <v>308782.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1746,7 +1746,7 @@
         <v>32143</v>
       </c>
       <c r="B8">
-        <v>454270.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1754,7 +1754,7 @@
         <v>32509</v>
       </c>
       <c r="B9">
-        <v>630007.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1762,7 +1762,7 @@
         <v>32874</v>
       </c>
       <c r="B10">
-        <v>1097463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>33239</v>
       </c>
       <c r="B11">
-        <v>1482764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1778,7 +1778,7 @@
         <v>33604</v>
       </c>
       <c r="B12">
-        <v>1968819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1786,7 +1786,7 @@
         <v>33970</v>
       </c>
       <c r="B13">
-        <v>2517606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1794,7 +1794,7 @@
         <v>34335</v>
       </c>
       <c r="B14">
-        <v>2927394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1802,7 +1802,7 @@
         <v>34700</v>
       </c>
       <c r="B15">
-        <v>3194477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1810,7 +1810,7 @@
         <v>35065</v>
       </c>
       <c r="B16">
-        <v>3713822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1818,7 +1818,7 @@
         <v>35431</v>
       </c>
       <c r="B17">
-        <v>4187713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>35796</v>
       </c>
       <c r="B18">
-        <v>5128018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1834,7 +1834,7 @@
         <v>36161</v>
       </c>
       <c r="B19">
-        <v>6445875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1842,7 +1842,7 @@
         <v>36526</v>
       </c>
       <c r="B20">
-        <v>7528020</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1850,7 +1850,7 @@
         <v>36892</v>
       </c>
       <c r="B21">
-        <v>8237190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1858,7 +1858,7 @@
         <v>37257</v>
       </c>
       <c r="B22">
-        <v>8775970</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1866,7 +1866,7 @@
         <v>37622</v>
       </c>
       <c r="B23">
-        <v>9233620</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1874,7 +1874,7 @@
         <v>37987</v>
       </c>
       <c r="B24">
-        <v>9506430</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1882,7 +1882,7 @@
         <v>38353</v>
       </c>
       <c r="B25">
-        <v>9822730</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>38718</v>
       </c>
       <c r="B26">
-        <v>10493240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1898,7 +1898,7 @@
         <v>39083</v>
       </c>
       <c r="B27">
-        <v>10928830</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>39448</v>
       </c>
       <c r="B28">
-        <v>11262750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>39814</v>
       </c>
       <c r="B29">
-        <v>11465980</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>40179</v>
       </c>
       <c r="B30">
-        <v>11644260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>40544</v>
       </c>
       <c r="B31">
-        <v>11789380</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>40909</v>
       </c>
       <c r="B32">
-        <v>11881300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>41275</v>
       </c>
       <c r="B33">
-        <v>11931820</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>41640</v>
       </c>
       <c r="B34">
-        <v>12173440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>42005</v>
       </c>
       <c r="B35">
-        <v>12615220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>42370</v>
       </c>
       <c r="B36">
-        <v>13303930</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>42736</v>
       </c>
       <c r="B37">
-        <v>13911570</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>43101</v>
       </c>
       <c r="B38">
-        <v>14384260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>43466</v>
       </c>
       <c r="B39">
-        <v>14906890</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>43831</v>
       </c>
       <c r="B40">
-        <v>15367630</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>44197</v>
       </c>
       <c r="B41">
-        <v>15724140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>44562</v>
       </c>
       <c r="B42">
-        <v>16051530</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>44927</v>
       </c>
       <c r="B43">
-        <v>16303330</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>45292</v>
       </c>
       <c r="B44">
-        <v>16515860</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>45658</v>
       </c>
       <c r="B45">
-        <v>16631340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>46023</v>
       </c>
       <c r="B46">
-        <v>16815260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>46388</v>
       </c>
       <c r="B47">
-        <v>16967460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>46753</v>
       </c>
       <c r="B48">
-        <v>17121670</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>47119</v>
       </c>
       <c r="B49">
-        <v>17323500</v>
+        <v>253310</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>47484</v>
       </c>
       <c r="B50">
-        <v>17545160</v>
+        <v>408360</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>47849</v>
       </c>
       <c r="B51">
-        <v>17742650</v>
+        <v>534460</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>48214</v>
       </c>
       <c r="B52">
-        <v>17917900</v>
+        <v>641760</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>48580</v>
       </c>
       <c r="B53">
-        <v>18078940</v>
+        <v>736300</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>48945</v>
       </c>
       <c r="B54">
-        <v>18228140</v>
+        <v>820580</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>49310</v>
       </c>
       <c r="B55">
-        <v>18357750</v>
+        <v>896570</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>49675</v>
       </c>
       <c r="B56">
-        <v>18460940</v>
+        <v>965560</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>50041</v>
       </c>
       <c r="B57">
-        <v>18557960</v>
+        <v>1028960</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>50406</v>
       </c>
       <c r="B58">
-        <v>18642920</v>
+        <v>1089210</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>50771</v>
       </c>
       <c r="B59">
-        <v>18695970</v>
+        <v>1153370</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>51136</v>
       </c>
       <c r="B60">
-        <v>18746400</v>
+        <v>1214070</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>51502</v>
       </c>
       <c r="B61">
-        <v>18794360</v>
+        <v>1271650</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>51867</v>
       </c>
       <c r="B62">
-        <v>18838990</v>
+        <v>1326390</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>52232</v>
       </c>
       <c r="B63">
-        <v>18864630</v>
+        <v>1379360</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>52597</v>
       </c>
       <c r="B64">
-        <v>18889170</v>
+        <v>1429900</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>52963</v>
       </c>
       <c r="B65">
-        <v>18912940</v>
+        <v>1478560</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>53328</v>
       </c>
       <c r="B66">
-        <v>18935930</v>
+        <v>1525110</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>53693</v>
       </c>
       <c r="B67">
-        <v>18958470</v>
+        <v>1569920</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>54058</v>
       </c>
       <c r="B68">
-        <v>18980480</v>
+        <v>1612910</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>54424</v>
       </c>
       <c r="B69">
-        <v>19002270</v>
+        <v>1654610</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>54789</v>
       </c>
       <c r="B70">
-        <v>19023820</v>
+        <v>1694810</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>55154</v>
       </c>
       <c r="B71">
-        <v>19045070</v>
+        <v>1733760</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>55519</v>
       </c>
       <c r="B72">
-        <v>19066310</v>
+        <v>1771360</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>55885</v>
       </c>
       <c r="B73">
-        <v>19087470</v>
+        <v>1807940</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>56250</v>
       </c>
       <c r="B74">
-        <v>19108550</v>
+        <v>1843370</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>56615</v>
       </c>
       <c r="B75">
-        <v>19129650</v>
+        <v>1877690</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>56980</v>
       </c>
       <c r="B76">
-        <v>19150800</v>
+        <v>1911020</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>57346</v>
       </c>
       <c r="B77">
-        <v>19172000</v>
+        <v>1943570</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>57711</v>
       </c>
       <c r="B78">
-        <v>19193250</v>
+        <v>1975130</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>58076</v>
       </c>
       <c r="B79">
-        <v>19214470</v>
+        <v>2005920</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>58441</v>
       </c>
       <c r="B80">
-        <v>19235760</v>
+        <v>2035740</v>
       </c>
     </row>
   </sheetData>
